--- a/biology/Histoire de la zoologie et de la botanique/Andreas_Schmitz/Andreas_Schmitz.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Andreas_Schmitz/Andreas_Schmitz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andreas Schmitz est un herpétologiste allemand, travaillant au muséum d'histoire naturelle de Genève. Il s'intéresse aux reptiles et aux amphibiens d'Afrique et d'Asie, en étudiant tant leur phylogénie que leur morphologie.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Afroedura gorongosa Branch, Guyton, Schmitz, Barej, Naskrecki, Farooq, Verburgt &amp; Rödel, 2017
@@ -602,10 +616,12 @@
           <t>Taxons éponymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Acontias schmitzi Wagner, Broadley &amp; Bauer, 2012
-Trapelus schmitzi Wagner &amp; Böhme, 2006[1]</t>
+Trapelus schmitzi Wagner &amp; Böhme, 2006</t>
         </is>
       </c>
     </row>
